--- a/Team C - Responsibilities.xlsx
+++ b/Team C - Responsibilities.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Memeber Name</t>
   </si>
@@ -122,47 +122,52 @@
   </si>
   <si>
     <t>Contributions (D3)</t>
+  </si>
+  <si>
+    <t>P1,P2,P4</t>
+  </si>
+  <si>
+    <t>P2,P3,P4</t>
+  </si>
+  <si>
+    <t>1. Formulated 4-5 interview questions
+2. Collected interview responses from user 
+3. Documented all the reponses from interview and helped in (P1)
+4. worked on context of use model (P2)
+5. Use case Model and Full dressed use cases documentation(P4)
+6. Activity Diagram(P4)</t>
   </si>
   <si>
     <t>1. Formulated 4-5 interview questions
 2. Collected interview responses from TA 
 3. Creation of Domain Model and documentation(P3)
 4. worked on context of use model (P2)
-5. Use case Model and Full dressed use cases documentation(P4)</t>
+5. Use case Model and Full dressed use cases documentation(P4)
+6. Activity Diagram(P4)</t>
   </si>
   <si>
     <t>1. Formulated 4-5 interview questions
 2. Collected interview responses from user 
 3. Worked on Description of TVM and documentation (P1)
 4. worked on context of use model (P2)
-5. Use case Model and Full dressed use cases documentation(P4)</t>
+5. Use case Model and Full dressed use cases documentation(P4)
+6. Activity Diagram(P4)</t>
   </si>
   <si>
     <t>1. Formulated 4-5 interview questions
 2. Collected interview responses from user 
 3. Worked on Description of TVM and documentation (P1)
 4. Verification of Domain Model and concept description(P2)
-5. Use case Model and Full dressed use cases documentation(P4)</t>
+5. Use case Model and Full dressed use cases documentation(P4)
+6. Sequence Diagram(P4)</t>
   </si>
   <si>
     <t>1. Formulated 4-5 interview questions
 2. Collected interview responses from user 
 3. Creation of Domain Model and documentation(P3)
 4. verification of context of use model (P2)
-5. Use case Model and Full dressed use cases documentation(P4)</t>
-  </si>
-  <si>
-    <t>1. Formulated 4-5 interview questions
-2. Collected interview responses from user 
-3. Documented all the reponses from interview and helped in (P1)
-4. worked on context of use model (P2)
-5. Use case Model and Full dressed use cases documentation(P4)</t>
-  </si>
-  <si>
-    <t>P1,P2,P4</t>
-  </si>
-  <si>
-    <t>P2,P3,P4</t>
+5. Use case Model and Full dressed use cases documentation(P4)
+6. Sequence Diagram(P4)</t>
   </si>
 </sst>
 </file>
@@ -733,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,9 +750,11 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -764,7 +771,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -783,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -797,12 +804,12 @@
         <v>25162211</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -816,12 +823,12 @@
         <v>40085658</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -835,12 +842,12 @@
         <v>40078112</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -854,12 +861,12 @@
         <v>40085527</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -873,12 +880,12 @@
         <v>40076838</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -886,7 +893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
@@ -894,7 +901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -902,8 +909,63 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="H13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="H14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90">
+      <c r="H15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="90">
+      <c r="H16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" ht="90">
+      <c r="H17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" ht="90">
+      <c r="H18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" ht="90">
+      <c r="H19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -917,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -941,44 +1003,44 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="77.25" customHeight="1">
+    <row r="3" spans="1:2" ht="90">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="78.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="79.5" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="90">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="77.25" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
